--- a/resultados/vazao_transferencias/vazao_sao_lourenco.xlsx
+++ b/resultados/vazao_transferencias/vazao_sao_lourenco.xlsx
@@ -412,7 +412,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Vazão captada da ETA</t>
+          <t>Vazão captada da ETA (m³/s)</t>
         </is>
       </c>
     </row>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>45717</v>
+        <v>45747</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -4577,12 +4577,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>94,59</t>
+          <t>95,58</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>18,32</t>
+          <t>17,49</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4592,12 +4592,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>128,6</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4607,12 +4607,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>5,9</t>
         </is>
       </c>
     </row>

--- a/resultados/vazao_transferencias/vazao_sao_lourenco.xlsx
+++ b/resultados/vazao_transferencias/vazao_sao_lourenco.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,7 +418,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>43220</v>
+        <v>45777</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -427,48 +427,48 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>77,39</t>
+          <t>96,96</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30,84</t>
+          <t>31,82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>27,59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>86,3</t>
+          <t>211,6</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>112,04</t>
+          <t>110,11</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>5,03</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>43251</v>
+        <v>45808</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -477,48 +477,48 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>65,21</t>
+          <t>98,35</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15,36</t>
+          <t>17,94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22,3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>33,2</t>
+          <t>43,8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>91,38</t>
+          <t>86,97</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>5,19</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>43281</v>
+        <v>45838</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -527,48 +527,48 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>40,57</t>
+          <t>98,09</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16,51</t>
+          <t>17,56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20,6</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>87,6</t>
+          <t>84,4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>74,04</t>
+          <t>74,03</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>5,62</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>43312</v>
+        <v>43220</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -577,12 +577,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>26,15</t>
+          <t>77,39</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12,43</t>
+          <t>30,84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -597,28 +597,28 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>54,7</t>
+          <t>86,3</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>80,48</t>
+          <t>112,04</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>0,34</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>43343</v>
+        <v>43251</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -627,12 +627,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29,54</t>
+          <t>65,21</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14,35</t>
+          <t>15,36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -647,28 +647,28 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>52,1</t>
+          <t>33,2</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>61,58</t>
+          <t>91,38</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>2,11</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>43373</v>
+        <v>43281</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -677,48 +677,48 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22,88</t>
+          <t>40,57</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11,5</t>
+          <t>16,51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>59,8</t>
+          <t>87,6</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>118,99</t>
+          <t>74,04</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>2,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>43404</v>
+        <v>43312</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -727,48 +727,48 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>57,03</t>
+          <t>26,15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>27,51</t>
+          <t>12,43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24,1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>301,4</t>
+          <t>54,7</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>140,1</t>
+          <t>80,48</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>2,22</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>43434</v>
+        <v>43343</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -777,48 +777,48 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>56,79</t>
+          <t>29,54</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>18,67</t>
+          <t>14,35</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25,1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>52,1</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>153,94</t>
+          <t>61,58</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>2,35</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>43465</v>
+        <v>43373</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -827,48 +827,48 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>66,49</t>
+          <t>22,88</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23,51</t>
+          <t>11,5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>29,6</t>
+          <t>21,5</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>204,4</t>
+          <t>59,8</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>215,53</t>
+          <t>118,99</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>2,42</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>43496</v>
+        <v>43404</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -877,48 +877,48 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>67,02</t>
+          <t>57,03</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>21,82</t>
+          <t>27,51</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>37,4</t>
+          <t>24,1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>170,2</t>
+          <t>301,4</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>274,76</t>
+          <t>140,1</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>3,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>43524</v>
+        <v>43434</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -927,48 +927,48 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>93,72</t>
+          <t>56,79</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>36,12</t>
+          <t>18,67</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>37,2</t>
+          <t>25,1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>325,4</t>
+          <t>133</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>229,79</t>
+          <t>153,94</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>3,18</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>43555</v>
+        <v>43465</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -977,48 +977,48 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>98,22</t>
+          <t>66,49</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>38,52</t>
+          <t>23,51</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>37,8</t>
+          <t>29,6</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>232,2</t>
+          <t>204,4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>197,74</t>
+          <t>215,53</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>2,81</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>43585</v>
+        <v>43496</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1027,48 +1027,48 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>93,97</t>
+          <t>67,02</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29,87</t>
+          <t>21,82</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>30,2</t>
+          <t>37,4</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>153,8</t>
+          <t>170,2</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>112,61</t>
+          <t>274,76</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>2,96</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>43616</v>
+        <v>43524</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1077,48 +1077,48 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>100,64</t>
+          <t>93,72</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>28,21</t>
+          <t>36,12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24,9</t>
+          <t>37,2</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>129,8</t>
+          <t>325,4</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>90,16</t>
+          <t>229,79</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>2,56</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>43646</v>
+        <v>43555</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1127,48 +1127,48 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>98,22</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26,98</t>
+          <t>38,52</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>22,2</t>
+          <t>37,8</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>109,6</t>
+          <t>232,2</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>74,32</t>
+          <t>197,74</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>3,42</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>43677</v>
+        <v>43585</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1177,48 +1177,48 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>96,96</t>
+          <t>93,97</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>22,08</t>
+          <t>29,87</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20,5</t>
+          <t>30,2</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>36,6</t>
+          <t>153,8</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>79,95</t>
+          <t>112,61</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>2,91</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>43708</v>
+        <v>43616</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1227,48 +1227,48 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>63,09</t>
+          <t>100,64</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>19,14</t>
+          <t>28,21</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>18,6</t>
+          <t>24,9</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>129,8</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>61,38</t>
+          <t>90,16</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>3,22</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>43738</v>
+        <v>43646</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1277,48 +1277,48 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>60,28</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>19,65</t>
+          <t>26,98</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21,5</t>
+          <t>22,2</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>25,4</t>
+          <t>109,6</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>117,75</t>
+          <t>74,32</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>3,56</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>43769</v>
+        <v>43677</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1327,48 +1327,48 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>47,26</t>
+          <t>96,96</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>15,73</t>
+          <t>22,08</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>24,1</t>
+          <t>20,5</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>30,6</t>
+          <t>36,6</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>143,46</t>
+          <t>79,95</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>3,06</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>43799</v>
+        <v>43708</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1377,48 +1377,48 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>50,78</t>
+          <t>63,09</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21,67</t>
+          <t>19,14</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>25,1</t>
+          <t>18,6</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>157,8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>153,51</t>
+          <t>61,38</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>3,67</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>43830</v>
+        <v>43738</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1427,48 +1427,48 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>58,94</t>
+          <t>60,28</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22,96</t>
+          <t>19,65</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>29,6</t>
+          <t>21,5</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>25,4</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>215,3</t>
+          <t>117,75</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>3,33</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>43861</v>
+        <v>43769</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1477,48 +1477,48 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>69,51</t>
+          <t>47,26</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>35,14</t>
+          <t>15,73</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>37,4</t>
+          <t>24,1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>297,6</t>
+          <t>30,6</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>272,63</t>
+          <t>143,46</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>3,59</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>43890</v>
+        <v>43799</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1527,48 +1527,48 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>99,87</t>
+          <t>50,78</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>45,74</t>
+          <t>21,67</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>37,2</t>
+          <t>25,1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>333,7</t>
+          <t>157,8</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>231,74</t>
+          <t>153,51</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>3,24</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>43921</v>
+        <v>43830</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1577,48 +1577,48 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>98,85</t>
+          <t>58,94</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>33,08</t>
+          <t>22,96</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>37,8</t>
+          <t>29,6</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>108</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>198,44</t>
+          <t>215,3</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>3,13</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>43951</v>
+        <v>43861</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1627,48 +1627,48 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>95,08</t>
+          <t>69,51</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>20,88</t>
+          <t>35,14</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>29,4</t>
+          <t>37,4</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>297,6</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>113,45</t>
+          <t>272,63</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>3,43</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>43982</v>
+        <v>43890</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1677,48 +1677,48 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>93,84</t>
+          <t>99,87</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17,46</t>
+          <t>45,74</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>24,3</t>
+          <t>37,2</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>8,8</t>
+          <t>333,7</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>90,97</t>
+          <t>231,74</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,36</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>44012</v>
+        <v>43921</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1727,48 +1727,48 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>96,96</t>
+          <t>98,85</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>33,08</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>21,9</t>
+          <t>37,8</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>86</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>75,04</t>
+          <t>198,44</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>2,98</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>44043</v>
+        <v>43951</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1777,48 +1777,48 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>77,5</t>
+          <t>95,08</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15,88</t>
+          <t>20,88</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20,2</t>
+          <t>29,4</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>36,8</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>79,06</t>
+          <t>113,45</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>3,39</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>44074</v>
+        <v>43982</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1827,48 +1827,48 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>73,57</t>
+          <t>93,84</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20,04</t>
+          <t>17,46</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>18,3</t>
+          <t>24,3</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>131,8</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>60,19</t>
+          <t>90,97</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>2,2</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>44104</v>
+        <v>44012</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1877,48 +1877,48 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>63,83</t>
+          <t>96,96</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>15,32</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>20,7</t>
+          <t>21,9</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>22,4</t>
+          <t>138</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>115,87</t>
+          <t>75,04</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>1,67</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>44135</v>
+        <v>44043</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1927,48 +1927,48 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>62,78</t>
+          <t>77,5</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>15,35</t>
+          <t>15,88</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>23,1</t>
+          <t>20,2</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>110,2</t>
+          <t>36,8</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>141,16</t>
+          <t>79,06</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>2,89</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>44165</v>
+        <v>44074</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1977,48 +1977,48 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>60,07</t>
+          <t>73,57</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>21,96</t>
+          <t>20,04</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18,3</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>147,8</t>
+          <t>131,8</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>153,6</t>
+          <t>60,19</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>3,47</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>44196</v>
+        <v>44104</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2027,48 +2027,48 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>60,9</t>
+          <t>63,83</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>21,43</t>
+          <t>15,32</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>28,7</t>
+          <t>20,7</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>173,8</t>
+          <t>22,4</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>213,16</t>
+          <t>115,87</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>3,54</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>44227</v>
+        <v>44135</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2077,48 +2077,48 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>64,36</t>
+          <t>62,78</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>28,72</t>
+          <t>15,35</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>36,7</t>
+          <t>23,1</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>110,2</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>141,16</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>0,78</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>157,8</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>273,13</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>3,23</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>44255</v>
+        <v>44165</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2127,48 +2127,48 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>62,15</t>
+          <t>60,07</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>24,29</t>
+          <t>21,96</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>35,8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>212,8</t>
+          <t>147,8</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>233,78</t>
+          <t>153,6</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>5,23</t>
+          <t>4,91</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>44286</v>
+        <v>44196</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2177,48 +2177,48 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>64,04</t>
+          <t>60,9</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>28,27</t>
+          <t>21,43</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>36,5</t>
+          <t>28,7</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>173,8</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>196,19</t>
+          <t>213,16</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>4,81</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>44316</v>
+        <v>44227</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2227,48 +2227,48 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>79,9</t>
+          <t>64,36</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>22,52</t>
+          <t>28,72</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>29,3</t>
+          <t>36,7</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>78,2</t>
+          <t>157,8</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>111,33</t>
+          <t>273,13</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>5,57</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>44347</v>
+        <v>44255</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2277,48 +2277,48 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>73,35</t>
+          <t>62,15</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>16,89</t>
+          <t>24,29</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>24,2</t>
+          <t>35,8</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>212,8</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>89,33</t>
+          <t>233,78</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>5,23</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>44377</v>
+        <v>44286</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2327,48 +2327,48 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>71,47</t>
+          <t>64,04</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>16,04</t>
+          <t>28,27</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>21,9</t>
+          <t>36,5</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>53,6</t>
+          <t>141</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>76,3</t>
+          <t>196,19</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>5,19</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>44408</v>
+        <v>44316</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2377,48 +2377,48 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>62,99</t>
+          <t>79,9</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>13,46</t>
+          <t>22,52</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>20,2</t>
+          <t>29,3</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>78,2</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>78,22</t>
+          <t>111,33</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>4,82</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>44439</v>
+        <v>44347</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2427,48 +2427,48 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>57,3</t>
+          <t>73,35</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14,22</t>
+          <t>16,89</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>18,3</t>
+          <t>24,2</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>61,62</t>
+          <t>89,33</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>4,62</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>44469</v>
+        <v>44377</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2477,48 +2477,48 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>50,68</t>
+          <t>71,47</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13,86</t>
+          <t>16,04</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>20,6</t>
+          <t>21,9</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>35,4</t>
+          <t>53,6</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>76,3</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>4,27</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>44500</v>
+        <v>44408</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2527,48 +2527,48 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>66,92</t>
+          <t>62,99</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>20,98</t>
+          <t>13,46</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>23,02</t>
+          <t>20,2</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>140,54</t>
+          <t>78,22</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>4,46</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>44530</v>
+        <v>44439</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2577,48 +2577,48 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>66,27</t>
+          <t>57,3</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14,98</t>
+          <t>14,22</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18,3</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>33,2</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>153,49</t>
+          <t>61,62</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>4,37</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>44561</v>
+        <v>44469</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2627,48 +2627,48 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>76,71</t>
+          <t>50,68</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>19,69</t>
+          <t>13,86</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>28,6</t>
+          <t>20,6</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>35,4</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>212,38</t>
+          <t>114</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>4,46</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>44592</v>
+        <v>44500</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2677,48 +2677,48 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>89,93</t>
+          <t>66,92</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>33,3</t>
+          <t>20,98</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>35,7</t>
+          <t>23,02</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>393,2</t>
+          <t>176</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>270,87</t>
+          <t>140,54</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>3,45</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>44620</v>
+        <v>44530</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2727,48 +2727,48 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>81,51</t>
+          <t>66,27</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>23,75</t>
+          <t>14,98</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>35,9</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>102,4</t>
+          <t>33,2</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>233,37</t>
+          <t>153,49</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>3,59</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>44651</v>
+        <v>44561</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2777,48 +2777,48 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>97,34</t>
+          <t>76,71</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>31,26</t>
+          <t>19,69</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>35,1</t>
+          <t>28,6</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>284,4</t>
+          <t>186</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>195,11</t>
+          <t>212,38</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,41</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>44681</v>
+        <v>44592</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2827,48 +2827,48 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>93,47</t>
+          <t>89,93</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>24,43</t>
+          <t>33,3</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>27,7</t>
+          <t>35,7</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>58,2</t>
+          <t>393,2</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>110,68</t>
+          <t>270,87</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>3,44</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>44712</v>
+        <v>44620</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2877,48 +2877,48 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>90,41</t>
+          <t>81,51</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>17,54</t>
+          <t>23,75</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>22,4</t>
+          <t>35,9</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>72,8</t>
+          <t>102,4</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>88,91</t>
+          <t>233,37</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>4,74</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>44742</v>
+        <v>44651</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2927,48 +2927,48 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>89,08</t>
+          <t>97,34</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>19,31</t>
+          <t>31,26</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>20,6</t>
+          <t>35,1</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>284,4</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>75,86</t>
+          <t>195,11</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>4,7</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>44773</v>
+        <v>44681</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2977,48 +2977,48 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>76,82</t>
+          <t>93,47</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>13,51</t>
+          <t>24,43</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>18,7</t>
+          <t>27,7</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15,4</t>
+          <t>58,2</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>77,7</t>
+          <t>110,68</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>4,8</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>44804</v>
+        <v>44712</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3027,48 +3027,48 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>67,56</t>
+          <t>90,41</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>14,1</t>
+          <t>17,54</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>22,4</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>72,8</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>61,44</t>
+          <t>88,91</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>4,53</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>44834</v>
+        <v>44742</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3077,48 +3077,48 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>65,63</t>
+          <t>89,08</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>17,99</t>
+          <t>19,31</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>19,6</t>
+          <t>20,6</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>112,46</t>
+          <t>75,86</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>4,71</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>44865</v>
+        <v>44773</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3127,48 +3127,48 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>64,47</t>
+          <t>76,82</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>16,85</t>
+          <t>13,51</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>22,2</t>
+          <t>18,7</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>163,4</t>
+          <t>15,4</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>141,24</t>
+          <t>77,7</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>5,61</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>44895</v>
+        <v>44804</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3177,48 +3177,48 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>74,91</t>
+          <t>67,56</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>33,64</t>
+          <t>14,1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>23,4</t>
+          <t>17,3</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>107,6</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>151,17</t>
+          <t>61,44</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>4,73</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>44926</v>
+        <v>44834</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3227,48 +3227,48 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>81,4</t>
+          <t>65,63</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>35,27</t>
+          <t>17,99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>28,2</t>
+          <t>19,6</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>129</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>211,88</t>
+          <t>112,46</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>4,67</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>44957</v>
+        <v>44865</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3277,48 +3277,48 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>97,46</t>
+          <t>64,47</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>35,63</t>
+          <t>16,85</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>35,67</t>
+          <t>22,2</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>270,2</t>
+          <t>163,4</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>273,22</t>
+          <t>141,24</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>2,8</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>44985</v>
+        <v>44895</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3327,48 +3327,48 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>98,09</t>
+          <t>74,91</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>32,08</t>
+          <t>33,64</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>35,8</t>
+          <t>23,4</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>209,6</t>
+          <t>107,6</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>230,85</t>
+          <t>151,17</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>4,94</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>45016</v>
+        <v>44926</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3377,48 +3377,48 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>97,84</t>
+          <t>81,4</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>38,35</t>
+          <t>35,27</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>35,1</t>
+          <t>28,2</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>305,4</t>
+          <t>341</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>196,82</t>
+          <t>211,88</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>4,25</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>45046</v>
+        <v>44957</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3427,48 +3427,48 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>96,83</t>
+          <t>97,46</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>27,09</t>
+          <t>35,63</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>27,68</t>
+          <t>35,67</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>124,6</t>
+          <t>270,2</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>109,67</t>
+          <t>273,22</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>3,88</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>45077</v>
+        <v>44985</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3477,48 +3477,48 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>95,58</t>
+          <t>98,09</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>19,66</t>
+          <t>32,08</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>22,36</t>
+          <t>35,8</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>34,8</t>
+          <t>209,6</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>88,6</t>
+          <t>230,85</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>4,22</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>45107</v>
+        <v>45016</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3527,48 +3527,48 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>88,12</t>
+          <t>97,84</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>21,02</t>
+          <t>38,35</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>20,55</t>
+          <t>35,1</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>56,2</t>
+          <t>305,4</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>75,65</t>
+          <t>196,82</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>4,02</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>45138</v>
+        <v>45046</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3577,17 +3577,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>70,16</t>
+          <t>96,83</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>18,26</t>
+          <t>27,09</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>18,7</t>
+          <t>27,68</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3597,28 +3597,28 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>124,6</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>76,5</t>
+          <t>109,67</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>3,43</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3627,48 +3627,48 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>61,53</t>
+          <t>95,58</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>17,72</t>
+          <t>19,66</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>17,24</t>
+          <t>22,36</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>33,8</t>
+          <t>34,8</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>61,27</t>
+          <t>88,6</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>2,44</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>45199</v>
+        <v>45107</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3677,48 +3677,48 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>59,35</t>
+          <t>88,12</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>16,06</t>
+          <t>21,02</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>19,6</t>
+          <t>20,55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>55,2</t>
+          <t>56,2</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>112,78</t>
+          <t>75,65</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>3,37</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>45230</v>
+        <v>45138</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3727,48 +3727,48 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>68,75</t>
+          <t>70,16</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>30,04</t>
+          <t>18,26</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>22,17</t>
+          <t>18,7</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>263,8</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>141,66</t>
+          <t>76,5</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>2,95</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>45260</v>
+        <v>45169</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3777,48 +3777,48 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>68,64</t>
+          <t>61,53</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>24,62</t>
+          <t>17,72</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>23,5</t>
+          <t>17,24</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>167,8</t>
+          <t>33,8</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>150,35</t>
+          <t>61,27</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>2,87</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>45291</v>
+        <v>45199</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3827,48 +3827,48 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>58,42</t>
+          <t>59,35</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>18,06</t>
+          <t>16,06</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>28,32</t>
+          <t>19,6</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>98,6</t>
+          <t>55,2</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>214,31</t>
+          <t>112,78</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>2,59</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>45322</v>
+        <v>45230</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3877,48 +3877,48 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>87,64</t>
+          <t>68,75</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>33,23</t>
+          <t>30,04</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>35,6</t>
+          <t>22,17</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>263,8</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>273,16</t>
+          <t>141,66</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>2,31</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>45351</v>
+        <v>45260</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3927,48 +3927,48 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>99,24</t>
+          <t>68,64</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>27,39</t>
+          <t>24,62</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>35,7</t>
+          <t>23,5</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>195,6</t>
+          <t>167,8</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>230,45</t>
+          <t>150,35</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>3,43</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>45382</v>
+        <v>45291</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3977,48 +3977,48 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>99,11</t>
+          <t>58,42</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>24,44</t>
+          <t>18,06</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>35,1</t>
+          <t>28,32</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>80,2</t>
+          <t>98,6</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>198,87</t>
+          <t>214,31</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>3,29</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>45412</v>
+        <v>45322</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4027,48 +4027,48 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>97,46</t>
+          <t>87,64</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>20,18</t>
+          <t>33,23</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>27,7</t>
+          <t>35,6</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>118,2</t>
+          <t>182</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>109,95</t>
+          <t>273,16</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>3,19</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>45443</v>
+        <v>45351</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4077,17 +4077,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>94,96</t>
+          <t>99,24</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>17,25</t>
+          <t>27,39</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>22,3</t>
+          <t>35,7</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4097,28 +4097,28 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>54,2</t>
+          <t>195,6</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>87,59</t>
+          <t>230,45</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>2,88</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>45473</v>
+        <v>45382</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4127,48 +4127,48 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>87,88</t>
+          <t>99,11</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>13,72</t>
+          <t>24,44</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>20,6</t>
+          <t>35,1</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>80,2</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>75,28</t>
+          <t>198,87</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>3,1</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>45504</v>
+        <v>45412</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4177,48 +4177,48 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>79,21</t>
+          <t>97,46</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>14,61</t>
+          <t>20,18</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>18,7</t>
+          <t>27,7</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>62,2</t>
+          <t>118,2</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>75,49</t>
+          <t>109,95</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>2,89</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>45535</v>
+        <v>45443</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4227,48 +4227,48 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>59,45</t>
+          <t>94,96</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>14,18</t>
+          <t>17,25</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>17,2</t>
+          <t>22,3</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>55,2</t>
+          <t>54,2</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>60,75</t>
+          <t>87,59</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>3,62</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>45565</v>
+        <v>45473</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -4277,48 +4277,48 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>48,91</t>
+          <t>87,88</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>12,75</t>
+          <t>13,72</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>19,5</t>
+          <t>20,6</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>45,8</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>111,69</t>
+          <t>75,28</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>4,79</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>45596</v>
+        <v>45504</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -4327,48 +4327,48 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>48,42</t>
+          <t>79,21</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>16,31</t>
+          <t>14,61</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>22,3</t>
+          <t>18,7</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>130,4</t>
+          <t>62,2</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>143,97</t>
+          <t>75,49</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>4,03</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>45626</v>
+        <v>45535</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -4377,48 +4377,48 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>58,73</t>
+          <t>59,45</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>20,46</t>
+          <t>14,18</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>23,5</t>
+          <t>17,2</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>166,4</t>
+          <t>55,2</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>150,67</t>
+          <t>60,75</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>4,76</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>45657</v>
+        <v>45565</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -4427,37 +4427,37 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>70,16</t>
+          <t>48,91</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>25,78</t>
+          <t>12,75</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>28,2</t>
+          <t>19,5</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>216,6</t>
+          <t>45,8</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>212,17</t>
+          <t>111,69</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4468,7 +4468,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>45688</v>
+        <v>45596</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -4477,48 +4477,48 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>82,56</t>
+          <t>48,42</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>24,02</t>
+          <t>16,31</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>35,6</t>
+          <t>22,3</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>156,8</t>
+          <t>130,4</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>271,48</t>
+          <t>143,97</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>5,2</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -4527,90 +4527,240 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>94,59</t>
+          <t>58,73</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>35,45</t>
+          <t>20,46</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>35,64</t>
+          <t>23,5</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>164,4</t>
+          <t>166,4</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>229,81</t>
+          <t>150,67</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>5,09</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>São Lourenço</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>70,16</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>25,78</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>28,2</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>216,6</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>212,17</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>4,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <v>45688</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>São Lourenço</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>82,56</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>24,02</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>35,6</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>156,8</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>271,48</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>5,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
+        <v>45716</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>São Lourenço</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>94,59</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>35,45</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>35,64</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>164,4</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>229,81</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>5,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2">
         <v>45747</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>São Lourenço</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>São Lourenço</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
         <is>
           <t>95,58</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>17,49</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>35,02</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>0,5</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>128,6</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>196,68</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>0,65</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>5,9</t>
         </is>

--- a/resultados/vazao_transferencias/vazao_sao_lourenco.xlsx
+++ b/resultados/vazao_transferencias/vazao_sao_lourenco.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,7 +418,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45777</v>
+        <v>45868</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -427,48 +427,48 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>96,96</t>
+          <t>87,52</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31,82</t>
+          <t>15,67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>27,59</t>
+          <t>18,7</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>211,6</t>
+          <t>15,6</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>110,11</t>
+          <t>75,25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>5,18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -477,48 +477,48 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>98,35</t>
+          <t>96,96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17,94</t>
+          <t>31,82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>22,3</t>
+          <t>27,59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>43,8</t>
+          <t>211,6</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>86,97</t>
+          <t>110,11</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>5,03</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -527,48 +527,48 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>98,09</t>
+          <t>98,35</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17,56</t>
+          <t>17,94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20,6</t>
+          <t>22,3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>84,4</t>
+          <t>43,8</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>74,03</t>
+          <t>86,97</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>5,19</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>43220</v>
+        <v>45838</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -577,48 +577,48 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>77,39</t>
+          <t>98,09</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>30,84</t>
+          <t>17,56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20,6</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>86,3</t>
+          <t>84,4</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>112,04</t>
+          <t>74,03</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>5,62</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>43251</v>
+        <v>43220</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -627,12 +627,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>65,21</t>
+          <t>77,39</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15,36</t>
+          <t>30,84</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -647,28 +647,28 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>33,2</t>
+          <t>86,3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>91,38</t>
+          <t>112,04</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>0,34</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>43281</v>
+        <v>43251</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -677,12 +677,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>40,57</t>
+          <t>65,21</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16,51</t>
+          <t>15,36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -697,28 +697,28 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>87,6</t>
+          <t>33,2</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>74,04</t>
+          <t>91,38</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>2,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>43312</v>
+        <v>43281</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -727,12 +727,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>26,15</t>
+          <t>40,57</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12,43</t>
+          <t>16,51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -747,28 +747,28 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>54,7</t>
+          <t>87,6</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>80,48</t>
+          <t>74,04</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>2,1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -777,12 +777,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>29,54</t>
+          <t>26,15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14,35</t>
+          <t>12,43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -797,28 +797,28 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>52,1</t>
+          <t>54,7</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>61,58</t>
+          <t>80,48</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>2,22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>43373</v>
+        <v>43343</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -827,48 +827,48 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>22,88</t>
+          <t>29,54</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11,5</t>
+          <t>14,35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>21,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>59,8</t>
+          <t>52,1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>118,99</t>
+          <t>61,58</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>2,35</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>43404</v>
+        <v>43373</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -877,48 +877,48 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>57,03</t>
+          <t>22,88</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27,51</t>
+          <t>11,5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>24,1</t>
+          <t>21,5</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>301,4</t>
+          <t>59,8</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>140,1</t>
+          <t>118,99</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>2,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>43434</v>
+        <v>43404</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -927,48 +927,48 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>56,79</t>
+          <t>57,03</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>18,67</t>
+          <t>27,51</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>25,1</t>
+          <t>24,1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>301,4</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>153,94</t>
+          <t>140,1</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>3,14</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>43465</v>
+        <v>43434</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -977,48 +977,48 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>66,49</t>
+          <t>56,79</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23,51</t>
+          <t>18,67</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>29,6</t>
+          <t>25,1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>204,4</t>
+          <t>133</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>215,53</t>
+          <t>153,94</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>3,18</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>43496</v>
+        <v>43465</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1027,48 +1027,48 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>67,02</t>
+          <t>66,49</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>21,82</t>
+          <t>23,51</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>37,4</t>
+          <t>29,6</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>170,2</t>
+          <t>204,4</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>274,76</t>
+          <t>215,53</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>2,81</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1077,48 +1077,48 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>93,72</t>
+          <t>67,02</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>36,12</t>
+          <t>21,82</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>37,2</t>
+          <t>37,4</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>325,4</t>
+          <t>170,2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>229,79</t>
+          <t>274,76</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>2,96</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1127,48 +1127,48 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>98,22</t>
+          <t>93,72</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>38,52</t>
+          <t>36,12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>37,8</t>
+          <t>37,2</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>232,2</t>
+          <t>325,4</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>197,74</t>
+          <t>229,79</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>2,56</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1177,48 +1177,48 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>93,97</t>
+          <t>98,22</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29,87</t>
+          <t>38,52</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30,2</t>
+          <t>37,8</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>153,8</t>
+          <t>232,2</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>112,61</t>
+          <t>197,74</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>3,42</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1227,48 +1227,48 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>100,64</t>
+          <t>93,97</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>28,21</t>
+          <t>29,87</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24,9</t>
+          <t>30,2</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>129,8</t>
+          <t>153,8</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>90,16</t>
+          <t>112,61</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>2,91</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1277,48 +1277,48 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100,64</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>26,98</t>
+          <t>28,21</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>22,2</t>
+          <t>24,9</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>109,6</t>
+          <t>129,8</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>74,32</t>
+          <t>90,16</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>3,22</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>43677</v>
+        <v>43646</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1327,48 +1327,48 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>96,96</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>22,08</t>
+          <t>26,98</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>20,5</t>
+          <t>22,2</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>36,6</t>
+          <t>109,6</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>79,95</t>
+          <t>74,32</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>3,56</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>43708</v>
+        <v>43677</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1377,48 +1377,48 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>63,09</t>
+          <t>96,96</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>19,14</t>
+          <t>22,08</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>18,6</t>
+          <t>20,5</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>36,6</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>61,38</t>
+          <t>79,95</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>3,06</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>43738</v>
+        <v>43708</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1427,48 +1427,48 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>60,28</t>
+          <t>63,09</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>19,65</t>
+          <t>19,14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>21,5</t>
+          <t>18,6</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>25,4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>117,75</t>
+          <t>61,38</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>3,67</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>43769</v>
+        <v>43738</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1477,48 +1477,48 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>47,26</t>
+          <t>60,28</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>15,73</t>
+          <t>19,65</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>24,1</t>
+          <t>21,5</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>30,6</t>
+          <t>25,4</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>143,46</t>
+          <t>117,75</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>3,33</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>43799</v>
+        <v>43769</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1527,48 +1527,48 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>50,78</t>
+          <t>47,26</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21,67</t>
+          <t>15,73</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>25,1</t>
+          <t>24,1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>157,8</t>
+          <t>30,6</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>153,51</t>
+          <t>143,46</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>3,59</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>43830</v>
+        <v>43799</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1577,48 +1577,48 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>58,94</t>
+          <t>50,78</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>22,96</t>
+          <t>21,67</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>29,6</t>
+          <t>25,1</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>157,8</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>215,3</t>
+          <t>153,51</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>3,24</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>43861</v>
+        <v>43830</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1627,48 +1627,48 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>69,51</t>
+          <t>58,94</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>35,14</t>
+          <t>22,96</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>37,4</t>
+          <t>29,6</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>297,6</t>
+          <t>108</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>272,63</t>
+          <t>215,3</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>3,13</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>43890</v>
+        <v>43861</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1677,48 +1677,48 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>99,87</t>
+          <t>69,51</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>45,74</t>
+          <t>35,14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>37,2</t>
+          <t>37,4</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>333,7</t>
+          <t>297,6</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>231,74</t>
+          <t>272,63</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>3,43</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>43921</v>
+        <v>43890</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1727,48 +1727,48 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>98,85</t>
+          <t>99,87</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>33,08</t>
+          <t>45,74</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>37,8</t>
+          <t>37,2</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>333,7</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>198,44</t>
+          <t>231,74</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>2,36</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1777,48 +1777,48 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>95,08</t>
+          <t>98,85</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>20,88</t>
+          <t>33,08</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>29,4</t>
+          <t>37,8</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>86</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>113,45</t>
+          <t>198,44</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>2,98</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>43982</v>
+        <v>43951</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1827,48 +1827,48 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>93,84</t>
+          <t>95,08</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17,46</t>
+          <t>20,88</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>24,3</t>
+          <t>29,4</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>8,8</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>90,97</t>
+          <t>113,45</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>3,39</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1877,48 +1877,48 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>96,96</t>
+          <t>93,84</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17,46</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>21,9</t>
+          <t>24,3</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>75,04</t>
+          <t>90,97</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>2,2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>44043</v>
+        <v>44012</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1927,48 +1927,48 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>77,5</t>
+          <t>96,96</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>15,88</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>20,2</t>
+          <t>21,9</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>36,8</t>
+          <t>138</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>79,06</t>
+          <t>75,04</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>1,67</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>44074</v>
+        <v>44043</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1977,48 +1977,48 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>73,57</t>
+          <t>77,5</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>20,04</t>
+          <t>15,88</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>18,3</t>
+          <t>20,2</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>131,8</t>
+          <t>36,8</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>60,19</t>
+          <t>79,06</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>2,89</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2027,48 +2027,48 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>63,83</t>
+          <t>73,57</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>15,32</t>
+          <t>20,04</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>20,7</t>
+          <t>18,3</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>22,4</t>
+          <t>131,8</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>115,87</t>
+          <t>60,19</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>3,47</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>44135</v>
+        <v>44104</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2077,48 +2077,48 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>62,78</t>
+          <t>63,83</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>15,35</t>
+          <t>15,32</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>23,1</t>
+          <t>20,7</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>110,2</t>
+          <t>22,4</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>141,16</t>
+          <t>115,87</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>3,54</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>44165</v>
+        <v>44135</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2127,48 +2127,48 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>60,07</t>
+          <t>62,78</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>21,96</t>
+          <t>15,35</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23,1</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>147,8</t>
+          <t>110,2</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>153,6</t>
+          <t>141,16</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>3,23</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2177,48 +2177,48 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>60,9</t>
+          <t>60,07</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>21,43</t>
+          <t>21,96</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>28,7</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>173,8</t>
+          <t>147,8</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>213,16</t>
+          <t>153,6</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>4,91</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>44227</v>
+        <v>44196</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2227,48 +2227,48 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>64,36</t>
+          <t>60,9</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>28,72</t>
+          <t>21,43</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>36,7</t>
+          <t>28,7</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>157,8</t>
+          <t>173,8</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>273,13</t>
+          <t>213,16</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>4,81</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>44255</v>
+        <v>44227</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2277,48 +2277,48 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>62,15</t>
+          <t>64,36</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>24,29</t>
+          <t>28,72</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>35,8</t>
+          <t>36,7</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>212,8</t>
+          <t>157,8</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>233,78</t>
+          <t>273,13</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>5,23</t>
+          <t>5,57</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>44286</v>
+        <v>44255</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2327,48 +2327,48 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>64,04</t>
+          <t>62,15</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>28,27</t>
+          <t>24,29</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>36,5</t>
+          <t>35,8</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>212,8</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>196,19</t>
+          <t>233,78</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>5,23</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>44316</v>
+        <v>44286</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>79,9</t>
+          <t>64,04</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>22,52</t>
+          <t>28,27</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>29,3</t>
+          <t>36,5</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2397,28 +2397,28 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>78,2</t>
+          <t>141</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>111,33</t>
+          <t>196,19</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>5,19</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>44347</v>
+        <v>44316</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2427,48 +2427,48 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>73,35</t>
+          <t>79,9</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>16,89</t>
+          <t>22,52</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>24,2</t>
+          <t>29,3</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>78,2</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>111,33</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>0,7</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>89,33</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>4,82</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>44377</v>
+        <v>44347</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2477,48 +2477,48 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>71,47</t>
+          <t>73,35</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>16,04</t>
+          <t>16,89</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>21,9</t>
+          <t>24,2</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>53,6</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>76,3</t>
+          <t>89,33</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>4,62</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>44408</v>
+        <v>44377</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2527,48 +2527,48 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>62,99</t>
+          <t>71,47</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>13,46</t>
+          <t>16,04</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>20,2</t>
+          <t>21,9</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53,6</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>78,22</t>
+          <t>76,3</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>4,27</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>44439</v>
+        <v>44408</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2577,22 +2577,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>57,3</t>
+          <t>62,99</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14,22</t>
+          <t>13,46</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>18,3</t>
+          <t>20,2</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2602,23 +2602,23 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>61,62</t>
+          <t>78,22</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>4,46</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>44469</v>
+        <v>44439</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2627,48 +2627,48 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>50,68</t>
+          <t>57,3</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>13,86</t>
+          <t>14,22</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>20,6</t>
+          <t>18,3</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>35,4</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>61,62</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>4,37</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>44500</v>
+        <v>44469</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2677,48 +2677,48 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>66,92</t>
+          <t>50,68</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>20,98</t>
+          <t>13,86</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>23,02</t>
+          <t>20,6</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>35,4</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>140,54</t>
+          <t>114</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>4,46</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>44530</v>
+        <v>44500</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2727,48 +2727,48 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>66,27</t>
+          <t>66,92</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>14,98</t>
+          <t>20,98</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23,02</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>33,2</t>
+          <t>176</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>153,49</t>
+          <t>140,54</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>3,45</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>44561</v>
+        <v>44530</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2777,48 +2777,48 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>76,71</t>
+          <t>66,27</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>19,69</t>
+          <t>14,98</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>28,6</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>33,2</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>212,38</t>
+          <t>153,49</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>3,59</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>44592</v>
+        <v>44561</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2827,48 +2827,48 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>89,93</t>
+          <t>76,71</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>33,3</t>
+          <t>19,69</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>35,7</t>
+          <t>28,6</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>393,2</t>
+          <t>186</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>270,87</t>
+          <t>212,38</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>4,41</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>44620</v>
+        <v>44592</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2877,48 +2877,48 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>81,51</t>
+          <t>89,93</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>23,75</t>
+          <t>33,3</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>35,9</t>
+          <t>35,7</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>102,4</t>
+          <t>393,2</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>233,37</t>
+          <t>270,87</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>3,44</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>44651</v>
+        <v>44620</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2927,48 +2927,48 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>97,34</t>
+          <t>81,51</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>31,26</t>
+          <t>23,75</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>35,1</t>
+          <t>35,9</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>284,4</t>
+          <t>102,4</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>195,11</t>
+          <t>233,37</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,74</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>44681</v>
+        <v>44651</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2977,48 +2977,48 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>93,47</t>
+          <t>97,34</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>24,43</t>
+          <t>31,26</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>27,7</t>
+          <t>35,1</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>58,2</t>
+          <t>284,4</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>110,68</t>
+          <t>195,11</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>4,7</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>44712</v>
+        <v>44681</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3027,48 +3027,48 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>90,41</t>
+          <t>93,47</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>17,54</t>
+          <t>24,43</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>22,4</t>
+          <t>27,7</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>72,8</t>
+          <t>58,2</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>88,91</t>
+          <t>110,68</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>4,8</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>44742</v>
+        <v>44712</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3077,48 +3077,48 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>89,08</t>
+          <t>90,41</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>19,31</t>
+          <t>17,54</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>20,6</t>
+          <t>22,4</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>72,8</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>75,86</t>
+          <t>88,91</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>4,53</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>44773</v>
+        <v>44742</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3127,48 +3127,48 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>76,82</t>
+          <t>89,08</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>13,51</t>
+          <t>19,31</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>18,7</t>
+          <t>20,6</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>15,4</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>77,7</t>
+          <t>75,86</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>4,71</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>44804</v>
+        <v>44773</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3177,48 +3177,48 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>67,56</t>
+          <t>76,82</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>14,1</t>
+          <t>13,51</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>18,7</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>15,4</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>61,44</t>
+          <t>77,7</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>5,61</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>44834</v>
+        <v>44804</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3227,48 +3227,48 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>65,63</t>
+          <t>67,56</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>17,99</t>
+          <t>14,1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>19,6</t>
+          <t>17,3</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>112,46</t>
+          <t>61,44</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>4,73</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>44865</v>
+        <v>44834</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3277,48 +3277,48 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>64,47</t>
+          <t>65,63</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>16,85</t>
+          <t>17,99</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>22,2</t>
+          <t>19,6</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>163,4</t>
+          <t>129</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>141,24</t>
+          <t>112,46</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>4,67</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>44895</v>
+        <v>44865</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3327,48 +3327,48 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>74,91</t>
+          <t>64,47</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>33,64</t>
+          <t>16,85</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>23,4</t>
+          <t>22,2</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>107,6</t>
+          <t>163,4</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>151,17</t>
+          <t>141,24</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>2,8</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>44926</v>
+        <v>44895</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3377,48 +3377,48 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>81,4</t>
+          <t>74,91</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>35,27</t>
+          <t>33,64</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>28,2</t>
+          <t>23,4</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>107,6</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>211,88</t>
+          <t>151,17</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>4,94</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>44957</v>
+        <v>44926</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3427,48 +3427,48 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>97,46</t>
+          <t>81,4</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>35,63</t>
+          <t>35,27</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>35,67</t>
+          <t>28,2</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>270,2</t>
+          <t>341</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>273,22</t>
+          <t>211,88</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>4,25</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>44985</v>
+        <v>44957</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3477,48 +3477,48 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>98,09</t>
+          <t>97,46</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>32,08</t>
+          <t>35,63</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>35,8</t>
+          <t>35,67</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>209,6</t>
+          <t>270,2</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>230,85</t>
+          <t>273,22</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>3,88</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3527,48 +3527,48 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>97,84</t>
+          <t>98,09</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>38,35</t>
+          <t>32,08</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>35,1</t>
+          <t>35,8</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>305,4</t>
+          <t>209,6</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>196,82</t>
+          <t>230,85</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>4,22</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>45046</v>
+        <v>45016</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3577,48 +3577,48 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>96,83</t>
+          <t>97,84</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>27,09</t>
+          <t>38,35</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>27,68</t>
+          <t>35,1</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>124,6</t>
+          <t>305,4</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>109,67</t>
+          <t>196,82</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>4,02</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3627,48 +3627,48 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>95,58</t>
+          <t>96,83</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>19,66</t>
+          <t>27,09</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>22,36</t>
+          <t>27,68</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>34,8</t>
+          <t>124,6</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>88,6</t>
+          <t>109,67</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>3,43</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3677,48 +3677,48 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>88,12</t>
+          <t>95,58</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>21,02</t>
+          <t>19,66</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>20,55</t>
+          <t>22,36</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>56,2</t>
+          <t>34,8</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>75,65</t>
+          <t>88,6</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>2,44</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3727,48 +3727,48 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>70,16</t>
+          <t>88,12</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>18,26</t>
+          <t>21,02</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>18,7</t>
+          <t>20,55</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>56,2</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>76,5</t>
+          <t>75,65</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>3,37</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>45169</v>
+        <v>45138</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3777,48 +3777,48 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>61,53</t>
+          <t>70,16</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>17,72</t>
+          <t>18,26</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>17,24</t>
+          <t>18,7</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>33,8</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>61,27</t>
+          <t>76,5</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>2,95</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3827,48 +3827,48 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>59,35</t>
+          <t>61,53</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>16,06</t>
+          <t>17,72</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>19,6</t>
+          <t>17,24</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>55,2</t>
+          <t>33,8</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>112,78</t>
+          <t>61,27</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,87</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3877,48 +3877,48 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>68,75</t>
+          <t>59,35</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>30,04</t>
+          <t>16,06</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>22,17</t>
+          <t>19,6</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>263,8</t>
+          <t>55,2</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>141,66</t>
+          <t>112,78</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>2,59</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3927,48 +3927,48 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>68,64</t>
+          <t>68,75</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>24,62</t>
+          <t>30,04</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>23,5</t>
+          <t>22,17</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>167,8</t>
+          <t>263,8</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>150,35</t>
+          <t>141,66</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>2,31</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3977,48 +3977,48 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>58,42</t>
+          <t>68,64</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>18,06</t>
+          <t>24,62</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>28,32</t>
+          <t>23,5</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>98,6</t>
+          <t>167,8</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>214,31</t>
+          <t>150,35</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>3,43</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>45322</v>
+        <v>45291</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4027,48 +4027,48 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>87,64</t>
+          <t>58,42</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>33,23</t>
+          <t>18,06</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>35,6</t>
+          <t>28,32</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>98,6</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>273,16</t>
+          <t>214,31</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>3,29</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4077,48 +4077,48 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>99,24</t>
+          <t>87,64</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>27,39</t>
+          <t>33,23</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>35,7</t>
+          <t>35,6</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>195,6</t>
+          <t>182</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>230,45</t>
+          <t>273,16</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>3,19</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4127,48 +4127,48 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>99,11</t>
+          <t>99,24</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>24,44</t>
+          <t>27,39</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>35,1</t>
+          <t>35,7</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>80,2</t>
+          <t>195,6</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>198,87</t>
+          <t>230,45</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>2,88</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4177,48 +4177,48 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>97,46</t>
+          <t>99,11</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>20,18</t>
+          <t>24,44</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>27,7</t>
+          <t>35,1</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>118,2</t>
+          <t>80,2</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>109,95</t>
+          <t>198,87</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>3,1</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4227,48 +4227,48 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>94,96</t>
+          <t>97,46</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>17,25</t>
+          <t>20,18</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>22,3</t>
+          <t>27,7</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>54,2</t>
+          <t>118,2</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>87,59</t>
+          <t>109,95</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>2,89</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -4277,48 +4277,48 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>87,88</t>
+          <t>94,96</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>13,72</t>
+          <t>17,25</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>20,6</t>
+          <t>22,3</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>54,2</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>75,28</t>
+          <t>87,59</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>3,62</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -4327,48 +4327,48 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>79,21</t>
+          <t>87,88</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>14,61</t>
+          <t>13,72</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>18,7</t>
+          <t>20,6</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>62,2</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>75,49</t>
+          <t>75,28</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>4,79</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -4377,48 +4377,48 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>59,45</t>
+          <t>79,21</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>14,18</t>
+          <t>14,61</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>17,2</t>
+          <t>18,7</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>62,2</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>75,49</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
           <t>0,82</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>55,2</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>60,75</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>4,03</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -4427,48 +4427,48 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>48,91</t>
+          <t>59,45</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>12,75</t>
+          <t>14,18</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>19,5</t>
+          <t>17,2</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>45,8</t>
+          <t>55,2</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>111,69</t>
+          <t>60,75</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>4,76</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -4477,48 +4477,48 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>48,42</t>
+          <t>48,91</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>16,31</t>
+          <t>12,75</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>22,3</t>
+          <t>19,5</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>130,4</t>
+          <t>45,8</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>143,97</t>
+          <t>111,69</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>4,9</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -4527,48 +4527,48 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>58,73</t>
+          <t>48,42</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>20,46</t>
+          <t>16,31</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>23,5</t>
+          <t>22,3</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>166,4</t>
+          <t>130,4</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>150,67</t>
+          <t>143,97</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>5,2</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -4577,48 +4577,48 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>70,16</t>
+          <t>58,73</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>25,78</t>
+          <t>20,46</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>28,2</t>
+          <t>23,5</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>216,6</t>
+          <t>166,4</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>212,17</t>
+          <t>150,67</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>5,09</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -4627,48 +4627,48 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>82,56</t>
+          <t>70,16</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>24,02</t>
+          <t>25,78</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>35,6</t>
+          <t>28,2</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>156,8</t>
+          <t>216,6</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>271,48</t>
+          <t>212,17</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>4,9</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -4677,90 +4677,140 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>94,59</t>
+          <t>82,56</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>35,45</t>
+          <t>24,02</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>35,64</t>
+          <t>35,6</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>164,4</t>
+          <t>156,8</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>229,81</t>
+          <t>271,48</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>5,33</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
+        <v>45716</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>São Lourenço</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>94,59</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>35,45</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>35,64</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>164,4</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>229,81</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>5,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
         <v>45747</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>São Lourenço</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>São Lourenço</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
         <is>
           <t>95,58</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>17,49</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>35,02</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>0,5</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>128,6</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>196,68</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>0,65</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>5,9</t>
         </is>
